--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/178.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/178.xlsx
@@ -479,13 +479,13 @@
         <v>-7.024081667183147</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.67001969411304</v>
+        <v>-14.74748685002754</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.09223798735905223</v>
+        <v>-0.02740490368682474</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.13698321845621</v>
+        <v>-11.24028148787743</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.677273170845561</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.82689166676261</v>
+        <v>-14.89673910242321</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02639679636801183</v>
+        <v>0.04726049941953903</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.84575803404486</v>
+        <v>-10.9421304752628</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.2701662919643</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.18613136443673</v>
+        <v>-15.26259041303241</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0132466966367347</v>
+        <v>0.08098627153982538</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.47774649346678</v>
+        <v>-10.58261583922901</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.844395949915101</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.69320934579962</v>
+        <v>-15.77718337622645</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1373617275762978</v>
+        <v>0.2150514526391003</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.28972793235675</v>
+        <v>-10.39911412259938</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.390932616498405</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.17596182848258</v>
+        <v>-16.26580121058251</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1300300379849312</v>
+        <v>0.204027733646367</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.12950433017971</v>
+        <v>-10.24348591871978</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.927899922392333</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.74179806499914</v>
+        <v>-16.84571167265392</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2570646524581993</v>
+        <v>0.3535418320988787</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.982202830907449</v>
+        <v>-10.09522868134007</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.458288876980458</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.32358072637692</v>
+        <v>-17.43947379113188</v>
       </c>
       <c r="F8" t="n">
-        <v>0.410401703340495</v>
+        <v>0.4969156405186209</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.776928614652027</v>
+        <v>-9.889509326788028</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.000503187423954</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.04516299749866</v>
+        <v>-18.17643951809264</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6840832019439367</v>
+        <v>0.7819219810801556</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.812997908980982</v>
+        <v>-9.92751628193756</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.563910761415554</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.52476023519677</v>
+        <v>-18.66496570632881</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7303514001865966</v>
+        <v>0.8160536145885354</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.468500144306644</v>
+        <v>-9.5783052882402</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.163390552170759</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.1249768589757</v>
+        <v>-19.27611440298059</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8558803998330662</v>
+        <v>0.9415433373264799</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.419705131615531</v>
+        <v>-9.533856920092541</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.810495482277824</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.67054621069326</v>
+        <v>-19.82541506100804</v>
       </c>
       <c r="F12" t="n">
-        <v>1.010238650337016</v>
+        <v>1.107108599062948</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.927683298520623</v>
+        <v>-9.043340701824432</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.510122420682968</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.48056698751086</v>
+        <v>-20.64297700426247</v>
       </c>
       <c r="F13" t="n">
-        <v>1.192431136682476</v>
+        <v>1.296410205851465</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.430647113437335</v>
+        <v>-8.560784603684091</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.271484950043712</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.31213769480593</v>
+        <v>-21.47554272657351</v>
       </c>
       <c r="F14" t="n">
-        <v>1.508911373275521</v>
+        <v>1.62472588421343</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.968030592524944</v>
+        <v>-8.115895060819398</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.090669256824326</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.13415102102654</v>
+        <v>-22.30164085128074</v>
       </c>
       <c r="F15" t="n">
-        <v>1.620169762824509</v>
+        <v>1.740723687391122</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.521871096284603</v>
+        <v>-7.685302312657869</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.965593571627975</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.99316319507787</v>
+        <v>-23.15610999624599</v>
       </c>
       <c r="F16" t="n">
-        <v>1.896757752658814</v>
+        <v>2.022129644671183</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.947551047526606</v>
+        <v>-7.09921228364516</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.885046131837665</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.60768970586281</v>
+        <v>-23.76676118538978</v>
       </c>
       <c r="F17" t="n">
-        <v>2.086543774652475</v>
+        <v>2.213853327485419</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.859204187950638</v>
+        <v>-7.016023791388833</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.83933996372844</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.41832582091396</v>
+        <v>-24.58201888334407</v>
       </c>
       <c r="F18" t="n">
-        <v>2.497589714671307</v>
+        <v>2.638593816276696</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.458304782634144</v>
+        <v>-6.614692340078562</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.820034500842709</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.2658560453731</v>
+        <v>-25.43705099733151</v>
       </c>
       <c r="F19" t="n">
-        <v>2.76202804746849</v>
+        <v>2.905074548317188</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.157914986233582</v>
+        <v>-6.306957761783791</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.822991199422806</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.01891221252635</v>
+        <v>-26.1903428259359</v>
       </c>
       <c r="F20" t="n">
-        <v>2.98396876524143</v>
+        <v>3.126701050821928</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.03851318431704</v>
+        <v>-6.205728076211565</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.850928505135231</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.60268490393607</v>
+        <v>-26.7747963170934</v>
       </c>
       <c r="F21" t="n">
-        <v>3.303656616030697</v>
+        <v>3.440863949811986</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.712344643621118</v>
+        <v>-5.86845726270586</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.907677745904244</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.18852617919478</v>
+        <v>-27.3620777456647</v>
       </c>
       <c r="F22" t="n">
-        <v>3.514416507176803</v>
+        <v>3.639474183920971</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.558562454442204</v>
+        <v>-5.735374004319715</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.001011470298044</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.63866573549901</v>
+        <v>-27.80440119717242</v>
       </c>
       <c r="F23" t="n">
-        <v>3.697813485383702</v>
+        <v>3.820854947490244</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.362256465633363</v>
+        <v>-5.532325479547385</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.134862967773131</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.86734898923544</v>
+        <v>-28.03511375784932</v>
       </c>
       <c r="F24" t="n">
-        <v>3.83318789676715</v>
+        <v>3.957590958369231</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.198943079985672</v>
+        <v>-5.371473446833938</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.31428721425938</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.13671002790111</v>
+        <v>-28.29906767544136</v>
       </c>
       <c r="F25" t="n">
-        <v>4.147979226293611</v>
+        <v>4.273586779757131</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.90766552636295</v>
+        <v>-5.07446146456654</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.535160731482673</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.09705344259352</v>
+        <v>-28.25824587518085</v>
       </c>
       <c r="F26" t="n">
-        <v>4.304091845378353</v>
+        <v>4.441534840610793</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.909066402767015</v>
+        <v>-5.082251384757368</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.793789186665558</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.99112362030112</v>
+        <v>-28.14683037799777</v>
       </c>
       <c r="F27" t="n">
-        <v>4.260285000069937</v>
+        <v>4.389244183060939</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.731665699261627</v>
+        <v>-4.886311980428095</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.079309423438896</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.9379034092495</v>
+        <v>-28.09871616505442</v>
       </c>
       <c r="F28" t="n">
-        <v>4.24460042126555</v>
+        <v>4.361331393402379</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.652038313378249</v>
+        <v>-4.794626583627488</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.378829884555937</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.72847893299325</v>
+        <v>-27.87926298482141</v>
       </c>
       <c r="F29" t="n">
-        <v>4.234152763597852</v>
+        <v>4.34761066002425</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.535058587487427</v>
+        <v>-4.671022152498752</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.67972227714688</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.58452906324847</v>
+        <v>-27.7309402859275</v>
       </c>
       <c r="F30" t="n">
-        <v>4.141040305787496</v>
+        <v>4.244338575208715</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.489012958393076</v>
+        <v>-4.624099339114006</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.966218604523576</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.14229725786065</v>
+        <v>-27.28283003656374</v>
       </c>
       <c r="F31" t="n">
-        <v>3.998229466389948</v>
+        <v>4.095767122560807</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.585948368633216</v>
+        <v>-4.706947431496448</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.230385383982243</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.76869530396915</v>
+        <v>-26.90281285427979</v>
       </c>
       <c r="F32" t="n">
-        <v>3.914543466625636</v>
+        <v>4.00658235560297</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.666636231046773</v>
+        <v>-4.786221325203099</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.461622116628242</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.34906081328615</v>
+        <v>-26.48307362517406</v>
       </c>
       <c r="F33" t="n">
-        <v>3.782075546473051</v>
+        <v>3.87225532844686</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.61616540359192</v>
+        <v>-4.704865755344613</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.659990501227636</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.86450159281103</v>
+        <v>-25.99412848324696</v>
       </c>
       <c r="F34" t="n">
-        <v>3.65555153181061</v>
+        <v>3.738661470249887</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.442587652516315</v>
+        <v>-4.517017394171528</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.825578565961492</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.46074806547504</v>
+        <v>-25.58289925098834</v>
       </c>
       <c r="F35" t="n">
-        <v>3.415360143876304</v>
+        <v>3.500564850770257</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.454501648102286</v>
+        <v>-4.515616517767463</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.962458328321303</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.77138595164679</v>
+        <v>-24.89434885993628</v>
       </c>
       <c r="F36" t="n">
-        <v>3.204259852856313</v>
+        <v>3.275586718738036</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.726926285632922</v>
+        <v>-4.781324803940294</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.078698124800197</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.29574258940688</v>
+        <v>-24.41172730028174</v>
       </c>
       <c r="F37" t="n">
-        <v>3.072263255606031</v>
+        <v>3.147098858649337</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.726219301279469</v>
+        <v>-4.768625270183819</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.179070001744075</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.88332195758967</v>
+        <v>-23.99338894758006</v>
       </c>
       <c r="F38" t="n">
-        <v>3.000360328399271</v>
+        <v>3.072996424565167</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.867786371907053</v>
+        <v>-4.915560184976512</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.274021253930838</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.38519911137052</v>
+        <v>-23.49195374874195</v>
       </c>
       <c r="F39" t="n">
-        <v>2.97137396990769</v>
+        <v>3.04571206544301</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.74299054121972</v>
+        <v>-4.781835403751121</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.36610432231863</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.00367631425978</v>
+        <v>-23.10701386058952</v>
       </c>
       <c r="F40" t="n">
-        <v>3.054038770050348</v>
+        <v>3.143642490699121</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.733616452385044</v>
+        <v>-4.762746826207884</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.462280094465967</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.4742628642489</v>
+        <v>-22.57544018060976</v>
       </c>
       <c r="F41" t="n">
-        <v>3.075483962105095</v>
+        <v>3.155425563256674</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.661844448206701</v>
+        <v>-4.690516591430081</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.565386765014025</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.80203857484048</v>
+        <v>-21.89483681738263</v>
       </c>
       <c r="F42" t="n">
-        <v>3.172655033796386</v>
+        <v>3.248249990404513</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.688186161524254</v>
+        <v>-4.719188734653462</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.675239468846537</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.13976443559176</v>
+        <v>-21.23093923258154</v>
       </c>
       <c r="F43" t="n">
-        <v>3.29040720555487</v>
+        <v>3.367049546390334</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.728261700522778</v>
+        <v>-4.76634720948936</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.794454367717152</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.85296444954091</v>
+        <v>-20.93902015611958</v>
       </c>
       <c r="F44" t="n">
-        <v>3.200227423581061</v>
+        <v>3.270664012869547</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.78190086526533</v>
+        <v>-4.815364791328782</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.919169428925726</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.37000249001248</v>
+        <v>-20.4491716452964</v>
       </c>
       <c r="F45" t="n">
-        <v>3.323661654772855</v>
+        <v>3.401246641412923</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.732320314403713</v>
+        <v>-4.760691334661733</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.051640075977518</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.04048231978908</v>
+        <v>-20.12318639684026</v>
       </c>
       <c r="F46" t="n">
-        <v>3.352726567081486</v>
+        <v>3.428400077506663</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.716570274085117</v>
+        <v>-4.726625162667562</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.187824803631181</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.50136747337248</v>
+        <v>-19.57522115370266</v>
       </c>
       <c r="F47" t="n">
-        <v>3.362205394338896</v>
+        <v>3.434343982996807</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.989636434454997</v>
+        <v>-4.9937474175473</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.328378190913331</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.02768795655883</v>
+        <v>-19.09881843789793</v>
       </c>
       <c r="F48" t="n">
-        <v>3.294282527196021</v>
+        <v>3.361236563928608</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.105738976055425</v>
+        <v>-5.108252698201036</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.473121553442397</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.63507597894115</v>
+        <v>-18.7181466404719</v>
       </c>
       <c r="F49" t="n">
-        <v>3.314025719881344</v>
+        <v>3.379539603301341</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.391635593210196</v>
+        <v>-5.399281498069764</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.618450449054692</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.122394491962</v>
+        <v>-18.20156364724592</v>
       </c>
       <c r="F50" t="n">
-        <v>3.449216839025008</v>
+        <v>3.527561179229896</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.31945772764376</v>
+        <v>-5.301979503350056</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.766134185832565</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.45585226198688</v>
+        <v>-17.53864798515796</v>
       </c>
       <c r="F51" t="n">
-        <v>3.46364455675659</v>
+        <v>3.547670956394787</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.53260041790706</v>
+        <v>-5.514546132288321</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.911070715840862</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.06473280689316</v>
+        <v>-17.14518500785557</v>
       </c>
       <c r="F52" t="n">
-        <v>3.296036895776813</v>
+        <v>3.372574498189543</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.814255128941114</v>
+        <v>-5.817384189320286</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.054276389349326</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.6724743214522</v>
+        <v>-16.75774448986036</v>
       </c>
       <c r="F53" t="n">
-        <v>3.332904820579113</v>
+        <v>3.404572086334722</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.846318178600501</v>
+        <v>-5.84532316358453</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.192618559881537</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.47040771939301</v>
+        <v>-16.56698963745642</v>
       </c>
       <c r="F54" t="n">
-        <v>3.069382948980851</v>
+        <v>3.137829508237395</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.027018142422004</v>
+        <v>-6.017761884312904</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.326270476078669</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.17706158192129</v>
+        <v>-16.28043840515956</v>
       </c>
       <c r="F55" t="n">
-        <v>2.921073342389778</v>
+        <v>2.991588485495314</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.174280364785739</v>
+        <v>-6.154733556643042</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.456961607570616</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.84272344425213</v>
+        <v>-15.95722872490587</v>
       </c>
       <c r="F56" t="n">
-        <v>2.867316346921651</v>
+        <v>2.937988597661288</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.477092237212021</v>
+        <v>-6.473871530712956</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.582702333296997</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.29648638508964</v>
+        <v>-15.41006211224161</v>
       </c>
       <c r="F57" t="n">
-        <v>2.898633135319059</v>
+        <v>2.980905166376466</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.73520698773665</v>
+        <v>-6.730611589439205</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.709695822836257</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.09136927646831</v>
+        <v>-15.21187083182356</v>
       </c>
       <c r="F58" t="n">
-        <v>2.739142702101153</v>
+        <v>2.824295039783739</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.709834104829386</v>
+        <v>-6.707988090128702</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.836895368825523</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.74488148176203</v>
+        <v>-14.86989988159768</v>
       </c>
       <c r="F59" t="n">
-        <v>2.860246503387119</v>
+        <v>2.956317821639705</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.821576909583517</v>
+        <v>-6.815842480938842</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.970354582553299</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.68565190370606</v>
+        <v>-14.81891845433199</v>
       </c>
       <c r="F60" t="n">
-        <v>2.67920613969173</v>
+        <v>2.77522508873295</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823514570404093</v>
+        <v>-6.823841877975136</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.112081559430562</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.34247646161874</v>
+        <v>-14.47345185924737</v>
       </c>
       <c r="F61" t="n">
-        <v>2.564727043643678</v>
+        <v>2.661845746123602</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.225971959758752</v>
+        <v>-7.237506278562313</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.264869534015844</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.12996220189184</v>
+        <v>-14.2746583328986</v>
       </c>
       <c r="F62" t="n">
-        <v>2.516442630763392</v>
+        <v>2.618326931477704</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.177844654512567</v>
+        <v>-7.17551422460674</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.432789976655464</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.81048382794804</v>
+        <v>-13.95639754311908</v>
       </c>
       <c r="F63" t="n">
-        <v>2.444277857499798</v>
+        <v>2.545559912283391</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.373928074173099</v>
+        <v>-7.383315255310616</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.612404400885845</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.61961114481852</v>
+        <v>-13.77370754926564</v>
       </c>
       <c r="F64" t="n">
-        <v>2.354124260131672</v>
+        <v>2.459360190373467</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.40101604875263</v>
+        <v>-7.386090823513062</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.807869780024301</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.42859444635774</v>
+        <v>-13.58592464960676</v>
       </c>
       <c r="F65" t="n">
-        <v>2.121892992325135</v>
+        <v>2.203065269943837</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.741101707369306</v>
+        <v>-7.742764429830205</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.012653557397165</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.21179900360159</v>
+        <v>-13.37211425189853</v>
       </c>
       <c r="F66" t="n">
-        <v>2.05525317086075</v>
+        <v>2.136765848353336</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.789857443151894</v>
+        <v>-7.780326246683117</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.22668189723643</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.04138958981369</v>
+        <v>-13.20328900675447</v>
       </c>
       <c r="F67" t="n">
-        <v>2.316575535581602</v>
+        <v>2.430766600967137</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.860987924490992</v>
+        <v>-7.867926844997107</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.446602518691542</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.98908583996099</v>
+        <v>-13.15688988548339</v>
       </c>
       <c r="F68" t="n">
-        <v>2.035405239752693</v>
+        <v>2.12747031333571</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.767954020497687</v>
+        <v>-7.758488285543119</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.668163005141356</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.84826503059539</v>
+        <v>-13.01729975258491</v>
       </c>
       <c r="F69" t="n">
-        <v>2.083846760267079</v>
+        <v>2.200682470826643</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.840288993698223</v>
+        <v>-7.83078398183513</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.890844777787139</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.82082356383913</v>
+        <v>-13.00114385087822</v>
       </c>
       <c r="F70" t="n">
-        <v>2.085417836608086</v>
+        <v>2.195209888238801</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.751248242071644</v>
+        <v>-7.736990724277004</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.10568759731094</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.51723924554518</v>
+        <v>-12.69199530387654</v>
       </c>
       <c r="F71" t="n">
-        <v>2.03985662271888</v>
+        <v>2.152083842678155</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.468925823592663</v>
+        <v>-7.433340944468852</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.31204562015605</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.45004954736145</v>
+        <v>-12.62309051402054</v>
       </c>
       <c r="F72" t="n">
-        <v>2.051220741585498</v>
+        <v>2.157242209997796</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.53004069325784</v>
+        <v>-7.503450226186295</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.49961878234499</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.15195090395819</v>
+        <v>-12.2831095938266</v>
       </c>
       <c r="F73" t="n">
-        <v>2.027157088962405</v>
+        <v>2.133571326459955</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.273051880777599</v>
+        <v>-7.224754375594472</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.66291422168773</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.35342835238951</v>
+        <v>-12.485490411154</v>
       </c>
       <c r="F74" t="n">
-        <v>2.052425233446937</v>
+        <v>2.155461656811321</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.21844388562476</v>
+        <v>-7.179337177036524</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.79593871189691</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.4859617340563</v>
+        <v>-12.61863913105435</v>
       </c>
       <c r="F75" t="n">
-        <v>1.984397627881328</v>
+        <v>2.087460235851396</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.142875113622317</v>
+        <v>-7.112212940366994</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.88867565329212</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.74937886723183</v>
+        <v>-12.87062668384906</v>
       </c>
       <c r="F76" t="n">
-        <v>1.967508557215502</v>
+        <v>2.063998829159023</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.805303177151252</v>
+        <v>-6.752750673544564</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.93777279975794</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.32722074545425</v>
+        <v>-13.44310071790637</v>
       </c>
       <c r="F77" t="n">
-        <v>1.959286591030897</v>
+        <v>2.058500061965498</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.74142583158647</v>
+        <v>-6.705421998771723</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.93277506614232</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.82167774687772</v>
+        <v>-13.93213750595336</v>
       </c>
       <c r="F78" t="n">
-        <v>2.008435095898737</v>
+        <v>2.110921642543769</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.747801783070391</v>
+        <v>-6.733884665149636</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.87180659583266</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.31063598110766</v>
+        <v>-14.42008763286449</v>
       </c>
       <c r="F79" t="n">
-        <v>2.054310525056145</v>
+        <v>2.154702303246501</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.646454266772589</v>
+        <v>-6.643940544626978</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.75104027822397</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.85963551616976</v>
+        <v>-14.96767319921969</v>
       </c>
       <c r="F80" t="n">
-        <v>1.949624471533704</v>
+        <v>2.035850378049311</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.299940287460625</v>
+        <v>-6.285119800643792</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.5697082041482</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.63246106061401</v>
+        <v>-15.73871819047746</v>
       </c>
       <c r="F81" t="n">
-        <v>2.046088558871541</v>
+        <v>2.137577571129523</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.238249356470413</v>
+        <v>-6.231742481958075</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.33582550064347</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.36306392839369</v>
+        <v>-16.46568139806714</v>
       </c>
       <c r="F82" t="n">
-        <v>2.021317921894996</v>
+        <v>2.103851799009237</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.138551470330668</v>
+        <v>-6.129779627426712</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.05254160983508</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.23917464995632</v>
+        <v>-17.34293114997699</v>
       </c>
       <c r="F83" t="n">
-        <v>2.000841560250536</v>
+        <v>2.086988912949093</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.845440994310105</v>
+        <v>-5.831550060995034</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.734675713920655</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.29395602839998</v>
+        <v>-18.39526426778925</v>
       </c>
       <c r="F84" t="n">
-        <v>2.017521154070895</v>
+        <v>2.093220849101755</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.729508652646621</v>
+        <v>-5.726746176747016</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.391477248531077</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.09396119354365</v>
+        <v>-19.1934103259294</v>
       </c>
       <c r="F85" t="n">
-        <v>2.041820468145139</v>
+        <v>2.122599976678588</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.587849935899145</v>
+        <v>-5.595233994701879</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.038369347655294</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.23871287711565</v>
+        <v>-20.34698622161672</v>
       </c>
       <c r="F86" t="n">
-        <v>2.030011210981902</v>
+        <v>2.10963859686528</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252084737220239</v>
+        <v>-5.253511798229987</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.690139856352793</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.30426922079805</v>
+        <v>-21.41349830340657</v>
       </c>
       <c r="F87" t="n">
-        <v>1.864995825964786</v>
+        <v>1.915610668750899</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.896406145919066</v>
+        <v>-4.884937288629714</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.359046606195941</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.64744784623926</v>
+        <v>-22.75373116070839</v>
       </c>
       <c r="F88" t="n">
-        <v>1.956720499673919</v>
+        <v>2.01346254018996</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661765894389651</v>
+        <v>-4.662053925052169</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.063465419230537</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.03315027131038</v>
+        <v>-24.12693043656567</v>
       </c>
       <c r="F89" t="n">
-        <v>1.818963289173277</v>
+        <v>1.886310094991116</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.279653943651034</v>
+        <v>-4.273382730589848</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.810908838230362</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.50335041892201</v>
+        <v>-25.59428955446064</v>
       </c>
       <c r="F90" t="n">
-        <v>1.608360505661272</v>
+        <v>1.666176115010334</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.161561372018665</v>
+        <v>-4.166876846972406</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.616045158017646</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.14731160984903</v>
+        <v>-27.2366927613495</v>
       </c>
       <c r="F91" t="n">
-        <v>1.405691657671353</v>
+        <v>1.457720469164372</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.063696408276763</v>
+        <v>-4.059965101966871</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.482844229045266</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.74695535565681</v>
+        <v>-28.82073048216993</v>
       </c>
       <c r="F92" t="n">
-        <v>1.285019902379163</v>
+        <v>1.331484485164449</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.795199461598645</v>
+        <v>-3.787972510430012</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.416628484220493</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.59833790050529</v>
+        <v>-30.66565852171744</v>
       </c>
       <c r="F93" t="n">
-        <v>1.147079399638737</v>
+        <v>1.191252829426721</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.788731863994832</v>
+        <v>-3.774081577114941</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.415953420209415</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.67933325259196</v>
+        <v>-32.73737143108934</v>
       </c>
       <c r="F94" t="n">
-        <v>1.034590333622627</v>
+        <v>1.075490687700179</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.785118388410516</v>
+        <v>-3.764131426955229</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.475240679725778</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.71334032977968</v>
+        <v>-34.762449557739</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6300119912076081</v>
+        <v>0.6719204526039732</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.771410747335228</v>
+        <v>-3.747726771494546</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.593720146674536</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.68633727572496</v>
+        <v>-36.72846830626963</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4033973213201715</v>
+        <v>0.4535932104153493</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.982681238292162</v>
+        <v>-3.964325829708062</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.756742293648709</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.77721731645714</v>
+        <v>-38.81268436485537</v>
       </c>
       <c r="F97" t="n">
-        <v>0.02433587714367668</v>
+        <v>0.0665323692025598</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.984069022393385</v>
+        <v>-3.952647495573242</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.971067605849854</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.00606404453543</v>
+        <v>-41.02368628416039</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1879950903434367</v>
+        <v>-0.1379694011852014</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.184564548111578</v>
+        <v>-4.152213467789672</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.216351578365938</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.38734445459993</v>
+        <v>-43.39836817359267</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.1085640890026846</v>
+        <v>-0.05914064577516873</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.513024241804802</v>
+        <v>-4.482034760978436</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.510080271876232</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79643291590026</v>
+        <v>-45.79593540839227</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3710123917679254</v>
+        <v>-0.3397086956733584</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.699393172756772</v>
+        <v>-4.65947474139235</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.815885922895086</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19530938098404</v>
+        <v>-48.19415725833397</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3116257060778559</v>
+        <v>-0.2671380610216708</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.980655114705574</v>
+        <v>-4.929019072297805</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.18301806328015</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41522715852427</v>
+        <v>-50.40303822457863</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4571466521636412</v>
+        <v>-0.415958267423571</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.337001413451674</v>
+        <v>-5.291099799688582</v>
       </c>
     </row>
   </sheetData>
